--- a/hpp/data/datosPais.xlsx
+++ b/hpp/data/datosPais.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asantoro\Desktop\piaTool\hpp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\piaTool\hpp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -92,7 +92,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -134,7 +134,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/hpp/data/datosPais.xlsx
+++ b/hpp/data/datosPais.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\piaTool\hpp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asantoro\Desktop\piaTool\hpp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$I$89</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
@@ -91,8 +94,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -131,10 +135,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,7 +479,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>28.7</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -483,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="2">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -504,8 +511,8 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
-        <v>44.9</v>
+      <c r="C6" s="4">
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -515,7 +522,7 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>0.1</v>
       </c>
     </row>
@@ -559,7 +566,7 @@
       <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>2.97</v>
       </c>
       <c r="I11" s="1"/>
@@ -660,7 +667,7 @@
         <v>11</v>
       </c>
       <c r="C20">
-        <v>41.8</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -671,7 +678,7 @@
         <v>12</v>
       </c>
       <c r="C21">
-        <v>459.3</v>
+        <v>289.02</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -781,7 +788,7 @@
         <v>11</v>
       </c>
       <c r="C31">
-        <v>51.2</v>
+        <v>43.09</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -792,7 +799,7 @@
         <v>12</v>
       </c>
       <c r="C32">
-        <v>588.70000000000005</v>
+        <v>495.46</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -902,7 +909,7 @@
         <v>11</v>
       </c>
       <c r="C42">
-        <v>41.5</v>
+        <v>47.78</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -913,7 +920,7 @@
         <v>12</v>
       </c>
       <c r="C43">
-        <v>439.1</v>
+        <v>505.59</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1023,7 +1030,7 @@
         <v>11</v>
       </c>
       <c r="C53">
-        <v>63.6</v>
+        <v>76.260000000000005</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1034,7 +1041,7 @@
         <v>12</v>
       </c>
       <c r="C54">
-        <v>776.7</v>
+        <v>931.36</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1144,7 +1151,7 @@
         <v>11</v>
       </c>
       <c r="C64">
-        <v>96.6</v>
+        <v>94.37</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1155,7 +1162,7 @@
         <v>12</v>
       </c>
       <c r="C65">
-        <v>1273.5999999999999</v>
+        <v>1244.24</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1264,8 +1271,8 @@
       <c r="B75" t="s">
         <v>11</v>
       </c>
-      <c r="C75">
-        <v>45.7</v>
+      <c r="C75" s="5">
+        <v>50.23</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -1276,7 +1283,7 @@
         <v>12</v>
       </c>
       <c r="C76">
-        <v>502.8</v>
+        <v>552.66999999999996</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -1386,7 +1393,7 @@
         <v>11</v>
       </c>
       <c r="C86">
-        <v>74.7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -1397,7 +1404,7 @@
         <v>12</v>
       </c>
       <c r="C87">
-        <v>941.3</v>
+        <v>834.99</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">

--- a/hpp/data/datosPais.xlsx
+++ b/hpp/data/datosPais.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asantoro\Desktop\piaTool\hpp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\piaTool\hpp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -87,7 +87,7 @@
     <t>Peru</t>
   </si>
   <si>
-    <t>México</t>
+    <t>Mexico</t>
   </si>
 </sst>
 </file>
@@ -96,7 +96,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -140,7 +140,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -440,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
